--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H2">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I2">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J2">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.27799533333333</v>
+        <v>12.68512566666667</v>
       </c>
       <c r="N2">
-        <v>39.833986</v>
+        <v>38.055377</v>
       </c>
       <c r="O2">
-        <v>0.1798393190154296</v>
+        <v>0.3241572678103573</v>
       </c>
       <c r="P2">
-        <v>0.1798393190154295</v>
+        <v>0.3241572678103574</v>
       </c>
       <c r="Q2">
-        <v>1209.180752340933</v>
+        <v>861.6358289701384</v>
       </c>
       <c r="R2">
-        <v>10882.6267710684</v>
+        <v>7754.722460731246</v>
       </c>
       <c r="S2">
-        <v>0.1640545186765722</v>
+        <v>0.2987201361967356</v>
       </c>
       <c r="T2">
-        <v>0.1640545186765722</v>
+        <v>0.2987201361967356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H3">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I3">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J3">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>38.465756</v>
       </c>
       <c r="O3">
-        <v>0.1736621427856523</v>
+        <v>0.3276528930253367</v>
       </c>
       <c r="P3">
-        <v>0.1736621427856522</v>
+        <v>0.3276528930253368</v>
       </c>
       <c r="Q3">
-        <v>1167.647440038834</v>
+        <v>870.9274791318734</v>
       </c>
       <c r="R3">
-        <v>10508.82696034951</v>
+        <v>7838.34731218686</v>
       </c>
       <c r="S3">
-        <v>0.1584195236226289</v>
+        <v>0.301941454192673</v>
       </c>
       <c r="T3">
-        <v>0.1584195236226289</v>
+        <v>0.301941454192673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H4">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I4">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J4">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.027281</v>
+        <v>0.3952726666666667</v>
       </c>
       <c r="N4">
-        <v>3.081843</v>
+        <v>1.185818</v>
       </c>
       <c r="O4">
-        <v>0.0139136602205079</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="P4">
-        <v>0.01391366022050789</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="Q4">
-        <v>93.55089991086101</v>
+        <v>26.84885437970334</v>
       </c>
       <c r="R4">
-        <v>841.958099197749</v>
+        <v>241.63968941733</v>
       </c>
       <c r="S4">
-        <v>0.01269243479680299</v>
+        <v>0.009308217192659545</v>
       </c>
       <c r="T4">
-        <v>0.01269243479680299</v>
+        <v>0.009308217192659545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H5">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I5">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J5">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.855569</v>
+        <v>8.489657333333334</v>
       </c>
       <c r="N5">
-        <v>128.566707</v>
+        <v>25.468972</v>
       </c>
       <c r="O5">
-        <v>0.5804427665093888</v>
+        <v>0.2169457519093423</v>
       </c>
       <c r="P5">
-        <v>0.5804427665093886</v>
+        <v>0.2169457519093424</v>
       </c>
       <c r="Q5">
-        <v>3902.707288601656</v>
+        <v>576.6590829526467</v>
       </c>
       <c r="R5">
-        <v>35124.3655974149</v>
+        <v>5189.93174657382</v>
       </c>
       <c r="S5">
-        <v>0.5294963259443052</v>
+        <v>0.1999216768928829</v>
       </c>
       <c r="T5">
-        <v>0.5294963259443051</v>
+        <v>0.1999216768928829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H6">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I6">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J6">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.518391</v>
+        <v>4.120022</v>
       </c>
       <c r="N6">
-        <v>10.555173</v>
+        <v>12.360066</v>
       </c>
       <c r="O6">
-        <v>0.04765365746752154</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="P6">
-        <v>0.04765365746752153</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="Q6">
-        <v>320.4076044317709</v>
+        <v>279.85206174769</v>
       </c>
       <c r="R6">
-        <v>2883.668439885939</v>
+        <v>2518.66855572921</v>
       </c>
       <c r="S6">
-        <v>0.04347101558109074</v>
+        <v>0.09702178483005544</v>
       </c>
       <c r="T6">
-        <v>0.04347101558109074</v>
+        <v>0.09702178483005545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.06651433333333</v>
+        <v>67.92489500000001</v>
       </c>
       <c r="H7">
-        <v>273.199543</v>
+        <v>203.774685</v>
       </c>
       <c r="I7">
-        <v>0.9122283134451645</v>
+        <v>0.9215284241953098</v>
       </c>
       <c r="J7">
-        <v>0.9122283134451646</v>
+        <v>0.9215284241953097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.331394</v>
+        <v>0.6206313333333333</v>
       </c>
       <c r="N7">
-        <v>0.994182</v>
+        <v>1.861894</v>
       </c>
       <c r="O7">
-        <v>0.00448845400150007</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="P7">
-        <v>0.004488454001500069</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="Q7">
-        <v>30.17889645098067</v>
+        <v>42.15631815037667</v>
       </c>
       <c r="R7">
-        <v>271.610068058826</v>
+        <v>379.40686335339</v>
       </c>
       <c r="S7">
-        <v>0.004094494823764609</v>
+        <v>0.01461515489030327</v>
       </c>
       <c r="T7">
-        <v>0.004094494823764609</v>
+        <v>0.01461515489030328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>3.316953</v>
       </c>
       <c r="H8">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I8">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J8">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.27799533333333</v>
+        <v>12.68512566666667</v>
       </c>
       <c r="N8">
-        <v>39.833986</v>
+        <v>38.055377</v>
       </c>
       <c r="O8">
-        <v>0.1798393190154296</v>
+        <v>0.3241572678103573</v>
       </c>
       <c r="P8">
-        <v>0.1798393190154295</v>
+        <v>0.3241572678103574</v>
       </c>
       <c r="Q8">
-        <v>44.04248645488601</v>
+        <v>42.075965635427</v>
       </c>
       <c r="R8">
-        <v>396.3823780939741</v>
+        <v>378.683690718843</v>
       </c>
       <c r="S8">
-        <v>0.005975425016224998</v>
+        <v>0.01458729751320441</v>
       </c>
       <c r="T8">
-        <v>0.005975425016224997</v>
+        <v>0.01458729751320441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>3.316953</v>
       </c>
       <c r="H9">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I9">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J9">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>38.465756</v>
       </c>
       <c r="O9">
-        <v>0.1736621427856523</v>
+        <v>0.3276528930253367</v>
       </c>
       <c r="P9">
-        <v>0.1736621427856522</v>
+        <v>0.3276528930253368</v>
       </c>
       <c r="Q9">
         <v>42.529701587156</v>
       </c>
       <c r="R9">
-        <v>382.7673142844041</v>
+        <v>382.767314284404</v>
       </c>
       <c r="S9">
-        <v>0.005770179280336313</v>
+        <v>0.01474460302527886</v>
       </c>
       <c r="T9">
-        <v>0.005770179280336313</v>
+        <v>0.01474460302527886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,43 +1042,43 @@
         <v>3.316953</v>
       </c>
       <c r="H10">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I10">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J10">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.027281</v>
+        <v>0.3952726666666667</v>
       </c>
       <c r="N10">
-        <v>3.081843</v>
+        <v>1.185818</v>
       </c>
       <c r="O10">
-        <v>0.0139136602205079</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="P10">
-        <v>0.01391366022050789</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="Q10">
-        <v>3.407442794793001</v>
+        <v>1.311100857518</v>
       </c>
       <c r="R10">
-        <v>30.66698515313701</v>
+        <v>11.799907717662</v>
       </c>
       <c r="S10">
-        <v>0.0004623017580585055</v>
+        <v>0.0004545449638434282</v>
       </c>
       <c r="T10">
-        <v>0.0004623017580585055</v>
+        <v>0.0004545449638434282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>3.316953</v>
       </c>
       <c r="H11">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I11">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J11">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.855569</v>
+        <v>8.489657333333334</v>
       </c>
       <c r="N11">
-        <v>128.566707</v>
+        <v>25.468972</v>
       </c>
       <c r="O11">
-        <v>0.5804427665093888</v>
+        <v>0.2169457519093423</v>
       </c>
       <c r="P11">
-        <v>0.5804427665093886</v>
+        <v>0.2169457519093424</v>
       </c>
       <c r="Q11">
-        <v>142.149908161257</v>
+        <v>28.159794360772</v>
       </c>
       <c r="R11">
-        <v>1279.349173451313</v>
+        <v>253.438149246948</v>
       </c>
       <c r="S11">
-        <v>0.01928606183828728</v>
+        <v>0.00976270638231945</v>
       </c>
       <c r="T11">
-        <v>0.01928606183828727</v>
+        <v>0.00976270638231945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,43 +1166,43 @@
         <v>3.316953</v>
       </c>
       <c r="H12">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I12">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J12">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>3.518391</v>
+        <v>4.120022</v>
       </c>
       <c r="N12">
-        <v>10.555173</v>
+        <v>12.360066</v>
       </c>
       <c r="O12">
-        <v>0.04765365746752154</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="P12">
-        <v>0.04765365746752153</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="Q12">
-        <v>11.670337582623</v>
+        <v>13.665919332966</v>
       </c>
       <c r="R12">
-        <v>105.033038243607</v>
+        <v>122.993273996694</v>
       </c>
       <c r="S12">
-        <v>0.001583362628956657</v>
+        <v>0.004737831398302594</v>
       </c>
       <c r="T12">
-        <v>0.001583362628956656</v>
+        <v>0.004737831398302595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,43 +1228,43 @@
         <v>3.316953</v>
       </c>
       <c r="H13">
-        <v>9.950859000000001</v>
+        <v>9.950858999999999</v>
       </c>
       <c r="I13">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734364</v>
       </c>
       <c r="J13">
-        <v>0.03322646598607465</v>
+        <v>0.04500068010734363</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.331394</v>
+        <v>0.6206313333333333</v>
       </c>
       <c r="N13">
-        <v>0.994182</v>
+        <v>1.861894</v>
       </c>
       <c r="O13">
-        <v>0.00448845400150007</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="P13">
-        <v>0.004488454001500069</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="Q13">
-        <v>1.099218322482</v>
+        <v>2.058604962994</v>
       </c>
       <c r="R13">
-        <v>9.892964902338001</v>
+        <v>18.527444666946</v>
       </c>
       <c r="S13">
-        <v>0.0001491354642109027</v>
+        <v>0.0007136968243948867</v>
       </c>
       <c r="T13">
-        <v>0.0001491354642109027</v>
+        <v>0.0007136968243948867</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H14">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I14">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J14">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.27799533333333</v>
+        <v>12.68512566666667</v>
       </c>
       <c r="N14">
-        <v>39.833986</v>
+        <v>38.055377</v>
       </c>
       <c r="O14">
-        <v>0.1798393190154296</v>
+        <v>0.3241572678103573</v>
       </c>
       <c r="P14">
-        <v>0.1798393190154295</v>
+        <v>0.3241572678103574</v>
       </c>
       <c r="Q14">
-        <v>0.9636460853182223</v>
+        <v>0.9411348434613332</v>
       </c>
       <c r="R14">
-        <v>8.672814767863999</v>
+        <v>8.470213591152</v>
       </c>
       <c r="S14">
-        <v>0.0001307418220108004</v>
+        <v>0.0003262816136073262</v>
       </c>
       <c r="T14">
-        <v>0.0001307418220108004</v>
+        <v>0.0003262816136073262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H15">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I15">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J15">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>38.465756</v>
       </c>
       <c r="O15">
-        <v>0.1736621427856523</v>
+        <v>0.3276528930253367</v>
       </c>
       <c r="P15">
-        <v>0.1736621427856522</v>
+        <v>0.3276528930253368</v>
       </c>
       <c r="Q15">
-        <v>0.9305464732604444</v>
+        <v>0.9512837897173333</v>
       </c>
       <c r="R15">
-        <v>8.374918259343998</v>
+        <v>8.561554107455999</v>
       </c>
       <c r="S15">
-        <v>0.0001262510617055214</v>
+        <v>0.0003298001471987964</v>
       </c>
       <c r="T15">
-        <v>0.0001262510617055214</v>
+        <v>0.0003298001471987964</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H16">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I16">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J16">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.027281</v>
+        <v>0.3952726666666667</v>
       </c>
       <c r="N16">
-        <v>3.081843</v>
+        <v>1.185818</v>
       </c>
       <c r="O16">
-        <v>0.0139136602205079</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="P16">
-        <v>0.01391366022050789</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="Q16">
-        <v>0.074554576148</v>
+        <v>0.02932606968533333</v>
       </c>
       <c r="R16">
-        <v>0.670991185332</v>
+        <v>0.263934627168</v>
       </c>
       <c r="S16">
-        <v>1.011512553554724E-05</v>
+        <v>1.01670418475847E-05</v>
       </c>
       <c r="T16">
-        <v>1.011512553554723E-05</v>
+        <v>1.01670418475847E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H17">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I17">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J17">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.855569</v>
+        <v>8.489657333333334</v>
       </c>
       <c r="N17">
-        <v>128.566707</v>
+        <v>25.468972</v>
       </c>
       <c r="O17">
-        <v>0.5804427665093888</v>
+        <v>0.2169457519093423</v>
       </c>
       <c r="P17">
-        <v>0.5804427665093886</v>
+        <v>0.2169457519093424</v>
       </c>
       <c r="Q17">
-        <v>3.110228634985333</v>
+        <v>0.6298646568746666</v>
       </c>
       <c r="R17">
-        <v>27.992057714868</v>
+        <v>5.668781911872</v>
       </c>
       <c r="S17">
-        <v>0.0004219774923631475</v>
+        <v>0.0002183674932738102</v>
       </c>
       <c r="T17">
-        <v>0.0004219774923631475</v>
+        <v>0.0002183674932738102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H18">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I18">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J18">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>3.518391</v>
+        <v>4.120022</v>
       </c>
       <c r="N18">
-        <v>10.555173</v>
+        <v>12.360066</v>
       </c>
       <c r="O18">
-        <v>0.04765365746752154</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="P18">
-        <v>0.04765365746752153</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="Q18">
-        <v>0.255346054028</v>
+        <v>0.305672672224</v>
       </c>
       <c r="R18">
-        <v>2.298114486252</v>
+        <v>2.751054050016</v>
       </c>
       <c r="S18">
-        <v>3.464384783534356E-05</v>
+        <v>0.000105973520608482</v>
       </c>
       <c r="T18">
-        <v>3.464384783534356E-05</v>
+        <v>0.000105973520608482</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.07257466666666666</v>
+        <v>0.07419199999999999</v>
       </c>
       <c r="H19">
-        <v>0.217724</v>
+        <v>0.222576</v>
       </c>
       <c r="I19">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="J19">
-        <v>0.0007269924214936736</v>
+        <v>0.001006553441825687</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.331394</v>
+        <v>0.6206313333333333</v>
       </c>
       <c r="N19">
-        <v>0.994182</v>
+        <v>1.861894</v>
       </c>
       <c r="O19">
-        <v>0.00448845400150007</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="P19">
-        <v>0.004488454001500069</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="Q19">
-        <v>0.02405080908533333</v>
+        <v>0.04604587988266666</v>
       </c>
       <c r="R19">
-        <v>0.216457281768</v>
+        <v>0.414412918944</v>
       </c>
       <c r="S19">
-        <v>3.263072043313505E-06</v>
+        <v>1.596362528968768E-05</v>
       </c>
       <c r="T19">
-        <v>3.263072043313504E-06</v>
+        <v>1.596362528968769E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H20">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I20">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J20">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.27799533333333</v>
+        <v>12.68512566666667</v>
       </c>
       <c r="N20">
-        <v>39.833986</v>
+        <v>38.055377</v>
       </c>
       <c r="O20">
-        <v>0.1798393190154296</v>
+        <v>0.3241572678103573</v>
       </c>
       <c r="P20">
-        <v>0.1798393190154295</v>
+        <v>0.3241572678103574</v>
       </c>
       <c r="Q20">
-        <v>51.01542570418601</v>
+        <v>10.47489051238278</v>
       </c>
       <c r="R20">
-        <v>459.1388313376741</v>
+        <v>94.27401461144501</v>
       </c>
       <c r="S20">
-        <v>0.006921472321468864</v>
+        <v>0.003631535058430492</v>
       </c>
       <c r="T20">
-        <v>0.006921472321468863</v>
+        <v>0.003631535058430493</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H21">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I21">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J21">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>38.465756</v>
       </c>
       <c r="O21">
-        <v>0.1736621427856523</v>
+        <v>0.3276528930253367</v>
       </c>
       <c r="P21">
-        <v>0.1736621427856522</v>
+        <v>0.3276528930253368</v>
       </c>
       <c r="Q21">
-        <v>49.26313217495601</v>
+        <v>10.58784892805111</v>
       </c>
       <c r="R21">
-        <v>443.3681895746041</v>
+        <v>95.29064035246</v>
       </c>
       <c r="S21">
-        <v>0.006683731461831986</v>
+        <v>0.003670696560515826</v>
       </c>
       <c r="T21">
-        <v>0.006683731461831985</v>
+        <v>0.003670696560515826</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H22">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I22">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J22">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.027281</v>
+        <v>0.3952726666666667</v>
       </c>
       <c r="N22">
-        <v>3.081843</v>
+        <v>1.185818</v>
       </c>
       <c r="O22">
-        <v>0.0139136602205079</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="P22">
-        <v>0.01391366022050789</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="Q22">
-        <v>3.946919411943001</v>
+        <v>0.3264010160144445</v>
       </c>
       <c r="R22">
-        <v>35.52227470748701</v>
+        <v>2.937609144130001</v>
       </c>
       <c r="S22">
-        <v>0.0005354947662936008</v>
+        <v>0.0001131598207506374</v>
       </c>
       <c r="T22">
-        <v>0.0005354947662936007</v>
+        <v>0.0001131598207506374</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H23">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I23">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J23">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.855569</v>
+        <v>8.489657333333334</v>
       </c>
       <c r="N23">
-        <v>128.566707</v>
+        <v>25.468972</v>
       </c>
       <c r="O23">
-        <v>0.5804427665093888</v>
+        <v>0.2169457519093423</v>
       </c>
       <c r="P23">
-        <v>0.5804427665093886</v>
+        <v>0.2169457519093424</v>
       </c>
       <c r="Q23">
-        <v>164.655510221607</v>
+        <v>7.010433589002223</v>
       </c>
       <c r="R23">
-        <v>1481.899591994463</v>
+        <v>63.09390230102001</v>
       </c>
       <c r="S23">
-        <v>0.02233948929848239</v>
+        <v>0.002430444053154028</v>
       </c>
       <c r="T23">
-        <v>0.02233948929848238</v>
+        <v>0.002430444053154028</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H24">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I24">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J24">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>3.518391</v>
+        <v>4.120022</v>
       </c>
       <c r="N24">
-        <v>10.555173</v>
+        <v>12.360066</v>
       </c>
       <c r="O24">
-        <v>0.04765365746752154</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="P24">
-        <v>0.04765365746752153</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="Q24">
-        <v>13.518020616273</v>
+        <v>3.402156233423333</v>
       </c>
       <c r="R24">
-        <v>121.662185546457</v>
+        <v>30.61940610081</v>
       </c>
       <c r="S24">
-        <v>0.00183404537441509</v>
+        <v>0.001179492007227119</v>
       </c>
       <c r="T24">
-        <v>0.00183404537441509</v>
+        <v>0.001179492007227119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.842103</v>
+        <v>0.8257616666666667</v>
       </c>
       <c r="H25">
-        <v>11.526309</v>
+        <v>2.477285</v>
       </c>
       <c r="I25">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="J25">
-        <v>0.03848698026305931</v>
+        <v>0.01120300366226883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.331394</v>
+        <v>0.6206313333333333</v>
       </c>
       <c r="N25">
-        <v>0.994182</v>
+        <v>1.861894</v>
       </c>
       <c r="O25">
-        <v>0.00448845400150007</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="P25">
-        <v>0.004488454001500069</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="Q25">
-        <v>1.273249881582</v>
+        <v>0.5124935641988889</v>
       </c>
       <c r="R25">
-        <v>11.459248934238</v>
+        <v>4.61244207779</v>
       </c>
       <c r="S25">
-        <v>0.0001727470405673828</v>
+        <v>0.0001776761621907302</v>
       </c>
       <c r="T25">
-        <v>0.0001727470405673827</v>
+        <v>0.0001776761621907302</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H26">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I26">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J26">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.27799533333333</v>
+        <v>12.68512566666667</v>
       </c>
       <c r="N26">
-        <v>39.833986</v>
+        <v>38.055377</v>
       </c>
       <c r="O26">
-        <v>0.1798393190154296</v>
+        <v>0.3241572678103573</v>
       </c>
       <c r="P26">
-        <v>0.1798393190154295</v>
+        <v>0.3241572678103574</v>
       </c>
       <c r="Q26">
-        <v>17.83182546485023</v>
+        <v>15.45423785919733</v>
       </c>
       <c r="R26">
-        <v>160.486429183652</v>
+        <v>139.088140732776</v>
       </c>
       <c r="S26">
-        <v>0.002419316994665345</v>
+        <v>0.005357822740071046</v>
       </c>
       <c r="T26">
-        <v>0.002419316994665345</v>
+        <v>0.005357822740071047</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H27">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I27">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J27">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>38.465756</v>
       </c>
       <c r="O27">
-        <v>0.1736621427856523</v>
+        <v>0.3276528930253367</v>
       </c>
       <c r="P27">
-        <v>0.1736621427856522</v>
+        <v>0.3276528930253368</v>
       </c>
       <c r="Q27">
-        <v>17.21933244053244</v>
+        <v>15.62089222392533</v>
       </c>
       <c r="R27">
-        <v>154.973991964792</v>
+        <v>140.588030015328</v>
       </c>
       <c r="S27">
-        <v>0.002336217550597383</v>
+        <v>0.005415600066472191</v>
       </c>
       <c r="T27">
-        <v>0.002336217550597383</v>
+        <v>0.005415600066472192</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H28">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I28">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J28">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.027281</v>
+        <v>0.3952726666666667</v>
       </c>
       <c r="N28">
-        <v>3.081843</v>
+        <v>1.185818</v>
       </c>
       <c r="O28">
-        <v>0.0139136602205079</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="P28">
-        <v>0.01391366022050789</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="Q28">
-        <v>1.379597976614</v>
+        <v>0.4815591087093333</v>
       </c>
       <c r="R28">
-        <v>12.416381789526</v>
+        <v>4.334031978384</v>
       </c>
       <c r="S28">
-        <v>0.0001871757233833047</v>
+        <v>0.0001669515097954638</v>
       </c>
       <c r="T28">
-        <v>0.0001871757233833047</v>
+        <v>0.0001669515097954638</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H29">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I29">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J29">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>42.855569</v>
+        <v>8.489657333333334</v>
       </c>
       <c r="N29">
-        <v>128.566707</v>
+        <v>25.468972</v>
       </c>
       <c r="O29">
-        <v>0.5804427665093888</v>
+        <v>0.2169457519093423</v>
       </c>
       <c r="P29">
-        <v>0.5804427665093886</v>
+        <v>0.2169457519093424</v>
       </c>
       <c r="Q29">
-        <v>57.55334351461934</v>
+        <v>10.34291557057067</v>
       </c>
       <c r="R29">
-        <v>517.9800916315741</v>
+        <v>93.08624013513599</v>
       </c>
       <c r="S29">
-        <v>0.00780849848150421</v>
+        <v>0.003585780725489404</v>
       </c>
       <c r="T29">
-        <v>0.007808498481504209</v>
+        <v>0.003585780725489404</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H30">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I30">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J30">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>3.518391</v>
+        <v>4.120022</v>
       </c>
       <c r="N30">
-        <v>10.555173</v>
+        <v>12.360066</v>
       </c>
       <c r="O30">
-        <v>0.04765365746752154</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="P30">
-        <v>0.04765365746752153</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="Q30">
-        <v>4.725060722954</v>
+        <v>5.019406322511998</v>
       </c>
       <c r="R30">
-        <v>42.525546506586</v>
+        <v>45.17465690260799</v>
       </c>
       <c r="S30">
-        <v>0.0006410683937212006</v>
+        <v>0.001740175709823581</v>
       </c>
       <c r="T30">
-        <v>0.0006410683937212005</v>
+        <v>0.001740175709823581</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.342960666666667</v>
+        <v>1.218296</v>
       </c>
       <c r="H31">
-        <v>4.028882</v>
+        <v>3.654888</v>
       </c>
       <c r="I31">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="J31">
-        <v>0.0134526587840214</v>
+        <v>0.01652846711185124</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.331394</v>
+        <v>0.6206313333333333</v>
       </c>
       <c r="N31">
-        <v>0.994182</v>
+        <v>1.861894</v>
       </c>
       <c r="O31">
-        <v>0.00448845400150007</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="P31">
-        <v>0.004488454001500069</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="Q31">
-        <v>0.4450491071693334</v>
+        <v>0.7561126708746665</v>
       </c>
       <c r="R31">
-        <v>4.005441964524</v>
+        <v>6.805014037871999</v>
       </c>
       <c r="S31">
-        <v>6.038164014995592E-05</v>
+        <v>0.0002621363601995544</v>
       </c>
       <c r="T31">
-        <v>6.038164014995591E-05</v>
+        <v>0.0002621363601995545</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H32">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I32">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J32">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.27799533333333</v>
+        <v>12.68512566666667</v>
       </c>
       <c r="N32">
-        <v>39.833986</v>
+        <v>38.055377</v>
       </c>
       <c r="O32">
-        <v>0.1798393190154296</v>
+        <v>0.3241572678103573</v>
       </c>
       <c r="P32">
-        <v>0.1798393190154295</v>
+        <v>0.3241572678103574</v>
       </c>
       <c r="Q32">
-        <v>2.490115410827333</v>
+        <v>4.425269514445</v>
       </c>
       <c r="R32">
-        <v>22.411038697446</v>
+        <v>39.82742563000501</v>
       </c>
       <c r="S32">
-        <v>0.0003378441844873253</v>
+        <v>0.001534194688308494</v>
       </c>
       <c r="T32">
-        <v>0.0003378441844873253</v>
+        <v>0.001534194688308494</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H33">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I33">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J33">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>38.465756</v>
       </c>
       <c r="O33">
-        <v>0.1736621427856523</v>
+        <v>0.3276528930253367</v>
       </c>
       <c r="P33">
-        <v>0.1736621427856522</v>
+        <v>0.3276528930253368</v>
       </c>
       <c r="Q33">
-        <v>2.404584160990666</v>
+        <v>4.472990436460001</v>
       </c>
       <c r="R33">
-        <v>21.641257448916</v>
+        <v>40.25691392814001</v>
       </c>
       <c r="S33">
-        <v>0.0003262398085521353</v>
+        <v>0.001550739033198137</v>
       </c>
       <c r="T33">
-        <v>0.0003262398085521353</v>
+        <v>0.001550739033198137</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3488550000000001</v>
+      </c>
+      <c r="H34">
+        <v>1.046565</v>
+      </c>
+      <c r="I34">
+        <v>0.004732871481400963</v>
+      </c>
+      <c r="J34">
+        <v>0.004732871481400962</v>
+      </c>
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="L34">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G34">
-        <v>0.187537</v>
-      </c>
-      <c r="H34">
-        <v>0.562611</v>
-      </c>
-      <c r="I34">
-        <v>0.00187858910018637</v>
-      </c>
-      <c r="J34">
-        <v>0.00187858910018637</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
       <c r="M34">
-        <v>1.027281</v>
+        <v>0.3952726666666667</v>
       </c>
       <c r="N34">
-        <v>3.081843</v>
+        <v>1.185818</v>
       </c>
       <c r="O34">
-        <v>0.0139136602205079</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="P34">
-        <v>0.01391366022050789</v>
+        <v>0.01010084653741158</v>
       </c>
       <c r="Q34">
-        <v>0.192653196897</v>
+        <v>0.13789284613</v>
       </c>
       <c r="R34">
-        <v>1.733878772073</v>
+        <v>1.24103561517</v>
       </c>
       <c r="S34">
-        <v>2.613805043394282E-05</v>
+        <v>4.780600851492293E-05</v>
       </c>
       <c r="T34">
-        <v>2.613805043394282E-05</v>
+        <v>4.780600851492293E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H35">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I35">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J35">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>42.855569</v>
+        <v>8.489657333333334</v>
       </c>
       <c r="N35">
-        <v>128.566707</v>
+        <v>25.468972</v>
       </c>
       <c r="O35">
-        <v>0.5804427665093888</v>
+        <v>0.2169457519093423</v>
       </c>
       <c r="P35">
-        <v>0.5804427665093886</v>
+        <v>0.2169457519093424</v>
       </c>
       <c r="Q35">
-        <v>8.037004843552999</v>
+        <v>2.961659409020001</v>
       </c>
       <c r="R35">
-        <v>72.333043591977</v>
+        <v>26.65493468118001</v>
       </c>
       <c r="S35">
-        <v>0.00109041345444656</v>
+        <v>0.001026776362222815</v>
       </c>
       <c r="T35">
-        <v>0.00109041345444656</v>
+        <v>0.001026776362222815</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.187537</v>
+        <v>0.3488550000000001</v>
       </c>
       <c r="H36">
-        <v>0.562611</v>
+        <v>1.046565</v>
       </c>
       <c r="I36">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400963</v>
       </c>
       <c r="J36">
-        <v>0.00187858910018637</v>
+        <v>0.004732871481400962</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>3.518391</v>
+        <v>4.120022</v>
       </c>
       <c r="N36">
-        <v>10.555173</v>
+        <v>12.360066</v>
       </c>
       <c r="O36">
-        <v>0.04765365746752154</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="P36">
-        <v>0.04765365746752153</v>
+        <v>0.1052835509819202</v>
       </c>
       <c r="Q36">
-        <v>0.6598284929669999</v>
+        <v>1.43729027481</v>
       </c>
       <c r="R36">
-        <v>5.938456436702999</v>
+        <v>12.93561247329</v>
       </c>
       <c r="S36">
-        <v>8.952164150250076E-05</v>
+        <v>0.0004982935159029543</v>
       </c>
       <c r="T36">
-        <v>8.952164150250076E-05</v>
+        <v>0.0004982935159029543</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3488550000000001</v>
+      </c>
+      <c r="H37">
+        <v>1.046565</v>
+      </c>
+      <c r="I37">
+        <v>0.004732871481400963</v>
+      </c>
+      <c r="J37">
+        <v>0.004732871481400962</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="L37">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G37">
-        <v>0.187537</v>
-      </c>
-      <c r="H37">
-        <v>0.562611</v>
-      </c>
-      <c r="I37">
-        <v>0.00187858910018637</v>
-      </c>
-      <c r="J37">
-        <v>0.00187858910018637</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M37">
-        <v>0.331394</v>
+        <v>0.6206313333333333</v>
       </c>
       <c r="N37">
-        <v>0.994182</v>
+        <v>1.861894</v>
       </c>
       <c r="O37">
-        <v>0.00448845400150007</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="P37">
-        <v>0.004488454001500069</v>
+        <v>0.01585968973563177</v>
       </c>
       <c r="Q37">
-        <v>0.062148636578</v>
+        <v>0.21651034379</v>
       </c>
       <c r="R37">
-        <v>0.559337729202</v>
+        <v>1.94859309411</v>
       </c>
       <c r="S37">
-        <v>8.431960763905927E-06</v>
+        <v>7.506187325363918E-05</v>
       </c>
       <c r="T37">
-        <v>8.431960763905927E-06</v>
+        <v>7.506187325363919E-05</v>
       </c>
     </row>
   </sheetData>
